--- a/docs/PTA2_DDC_100/PTA2_DDC_100_30.07.24v_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731789252.8200984</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731789254.8607805</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789252.8200984.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789254.8607805.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.15</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5300000000000296</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731789256.9144046</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731789256.9144046.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731789256.9144046.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>291.01</v>
       </c>
-      <c r="J4" t="n">
-        <v>291.01</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>289.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.610000000000014</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731789264.6489441</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731789265.8533335</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789264.6489441.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789265.8533335.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.31</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731789271.092913</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731789272.0434525</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789271.092913.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789272.0434525.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6810</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6804.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>5.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731789278.3520103</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731789281.8288932</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789278.3520103.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789281.8288932.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>511.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>511.6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -791,95 +837,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731789281.9075582</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731789281.9075582.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731789281.9075582.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>511.75</v>
       </c>
-      <c r="J8" t="n">
-        <v>511.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>511.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731789284.6660047</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731789285.4405324</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789284.6660047.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789285.4405324.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>1044</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1047.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -887,51 +945,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731789288.467655</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731789289.7447503</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789288.467655.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789289.7447503.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1042.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1046</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731789299.582954</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731789301.1919308</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789299.582954.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789301.1919308.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>166.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>166.22</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -991,43 +1061,49 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731789302.1303828</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731789302.1303828.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731789302.1303828.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>165.68</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>165.68</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,51 +1111,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731789303.236666</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731789304.1134377</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789303.236666.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789304.1134377.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>51.675</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>51.61</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.06499999999999773</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1087,95 +1169,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731789307.280977</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731789307.280977.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731789307.280977.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>51.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>51.37</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.1300000000000026</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731789312.2693045</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731789314.027412</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789312.2693045.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789314.027412.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1422</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1419.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1183,95 +1277,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731789314.353168</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731789314.353168.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731789314.353168.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1420.6</v>
       </c>
-      <c r="J16" t="n">
-        <v>1420.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1420</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731789317.6009037</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731789318.4174044</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789317.6009037.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789318.4174044.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>60.44</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>60.57</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1279,139 +1385,157 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731789322.8750627</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731789322.8750627.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731789322.8750627.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>60.44</v>
       </c>
-      <c r="J18" t="n">
-        <v>60.44</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>60.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.03999999999999915</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731789329.0228453</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731789329.0228453.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731789329.0228453.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>140.98</v>
       </c>
-      <c r="J19" t="n">
-        <v>140.98</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>140.78</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731789333.1981637</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731789333.6647131</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789333.1981637.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789333.6647131.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>54.16</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>53.99</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1699999999999946</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1419,51 +1543,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731789334.6267457</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731789336.3285558</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789334.6267457.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789336.3285558.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>53.85</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>53.96</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1471,95 +1601,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731789338.3087902</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731789338.3087902.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731789338.3087902.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>53.57</v>
       </c>
-      <c r="J22" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>53.51</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731789339.889813</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731789343.371477</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789339.889813.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789343.371477.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>375.69</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>374.49</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1567,95 +1709,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731789344.3811154</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731789344.3811154.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731789344.3811154.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>374.12</v>
       </c>
-      <c r="J24" t="n">
-        <v>374.12</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>371.92</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-2.199999999999989</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731789348.6106853</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731789349.4315946</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789348.6106853.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789349.4315946.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>3024.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>3021.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1663,95 +1817,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731789352.0730007</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731789352.0730007.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731789352.0730007.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>3019.8</v>
       </c>
-      <c r="J26" t="n">
-        <v>3019.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3018.15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1.650000000000091</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731789355.7779255</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731789357.2748246</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789355.7779255.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789357.2748246.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>34.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>34.595</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.09499999999999886</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1759,51 +1925,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731789360.515791</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731789361.7271855</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789360.515791.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789361.7271855.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>34.38</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>34.52</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1811,51 +1983,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731789366.023007</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731789367.0850937</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789366.023007.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789367.0850937.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>640</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>640.5</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.5</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1863,51 +2041,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731789367.9350529</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731789368.0268393</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789367.9350529.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789368.0268393.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>640</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>640.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.5</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1915,43 +2099,49 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731789369.056968</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731789369.056968.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731789369.056968.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>640.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>640.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2013,19 +2203,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.279999999999994</v>
+        <v>0.2199999999999918</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09333333333333134</v>
+        <v>0.07333333333333059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -2057,19 +2247,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1300000000000026</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06500000000000128</v>
+        <v>0.04500000000000171</v>
       </c>
       <c r="E4" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -2079,19 +2269,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.199999999999989</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5999999999999943</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32</v>
+        <v>-0.27</v>
       </c>
       <c r="F5" t="n">
-        <v>0.16</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="6">
@@ -2101,19 +2291,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.599999999999909</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.299999999999955</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2123,19 +2313,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06499999999999773</v>
+        <v>-0.06500000000000483</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03249999999999886</v>
+        <v>-0.03250000000000242</v>
       </c>
       <c r="E7" t="n">
-        <v>0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="8">
@@ -2145,19 +2335,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.400000000000091</v>
+        <v>1.75</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1.700000000000045</v>
+        <v>0.875</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -2211,19 +2401,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3000000000000114</v>
+        <v>-0.9499999999999886</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1500000000000057</v>
+        <v>-0.4749999999999943</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06</v>
+        <v>-0.19</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
@@ -2255,19 +2445,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5300000000000296</v>
+        <v>-1.079999999999984</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2650000000000148</v>
+        <v>-0.539999999999992</v>
       </c>
       <c r="E13" t="n">
-        <v>0.18</v>
+        <v>-0.3699999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="14">
@@ -2321,19 +2511,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.14</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="17">
